--- a/src/kilosort_config_files/SILICON PROBE MAP H3.xlsx
+++ b/src/kilosort_config_files/SILICON PROBE MAP H3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Dropbox\alab\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Dropbox\alab\Code\spikesort\spikesort-hp\src\kilosort_config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,18 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
-    <t>Intan channel</t>
-  </si>
-  <si>
-    <t>Molex channel</t>
-  </si>
-  <si>
-    <t>Shank Letter</t>
-  </si>
-  <si>
-    <t>Shank Position</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -51,6 +39,18 @@
   </si>
   <si>
     <t>xpos</t>
+  </si>
+  <si>
+    <t>IntanChannel</t>
+  </si>
+  <si>
+    <t>MolexChannel</t>
+  </si>
+  <si>
+    <t>ShankLetter</t>
+  </si>
+  <si>
+    <t>ShankPosition</t>
   </si>
 </sst>
 </file>
@@ -159,12 +159,12 @@
     <sortCondition descending="1" ref="D1:D65"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Intan channel" dataDxfId="5"/>
-    <tableColumn id="2" name="Molex channel" dataDxfId="4"/>
-    <tableColumn id="3" name="Shank Letter" dataDxfId="3"/>
-    <tableColumn id="5" name="Shank Position" dataDxfId="2"/>
-    <tableColumn id="7" name="xpos" dataDxfId="0"/>
-    <tableColumn id="6" name="ypos" dataDxfId="1"/>
+    <tableColumn id="1" name="IntanChannel" dataDxfId="5"/>
+    <tableColumn id="2" name="MolexChannel" dataDxfId="4"/>
+    <tableColumn id="3" name="ShankLetter" dataDxfId="3"/>
+    <tableColumn id="5" name="ShankPosition" dataDxfId="2"/>
+    <tableColumn id="7" name="xpos" dataDxfId="1"/>
+    <tableColumn id="6" name="ypos" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,32 +436,32 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>64</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>63</v>
@@ -515,7 +515,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>62</v>
@@ -535,7 +535,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>61</v>
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>60</v>
@@ -575,7 +575,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>59</v>
@@ -595,7 +595,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>58</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
         <v>57</v>
@@ -635,7 +635,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>56</v>
@@ -655,7 +655,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>55</v>
@@ -675,7 +675,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <v>54</v>
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
         <v>53</v>
@@ -715,7 +715,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
         <v>52</v>
@@ -735,7 +735,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <v>51</v>
@@ -755,7 +755,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>50</v>
@@ -775,7 +775,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>49</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
         <v>48</v>
@@ -815,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <v>47</v>
@@ -835,7 +835,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <v>46</v>
@@ -855,7 +855,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>45</v>
@@ -875,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
         <v>44</v>
@@ -895,7 +895,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
         <v>43</v>
@@ -915,7 +915,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
         <v>42</v>
@@ -935,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
         <v>41</v>
@@ -955,7 +955,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
         <v>40</v>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
         <v>39</v>
@@ -995,7 +995,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
         <v>38</v>
@@ -1015,7 +1015,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
         <v>37</v>
@@ -1035,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
         <v>36</v>
@@ -1055,7 +1055,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>35</v>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <v>34</v>
@@ -1095,7 +1095,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
         <v>33</v>
@@ -1115,7 +1115,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
         <v>32</v>
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
         <v>31</v>
@@ -1155,7 +1155,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
         <v>30</v>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
         <v>29</v>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
         <v>28</v>
@@ -1215,7 +1215,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
         <v>27</v>
@@ -1235,7 +1235,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
         <v>26</v>
@@ -1255,7 +1255,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
         <v>24</v>
@@ -1295,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2">
         <v>23</v>
@@ -1315,7 +1315,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
         <v>22</v>
@@ -1335,7 +1335,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2">
         <v>21</v>
@@ -1355,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2">
         <v>20</v>
@@ -1375,7 +1375,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
         <v>19</v>
@@ -1395,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2">
         <v>18</v>
@@ -1415,7 +1415,7 @@
         <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2">
         <v>17</v>
@@ -1435,7 +1435,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2">
         <v>16</v>
@@ -1455,7 +1455,7 @@
         <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
         <v>15</v>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
         <v>14</v>
@@ -1495,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
         <v>13</v>
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2">
         <v>12</v>
@@ -1535,7 +1535,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
         <v>11</v>
@@ -1555,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2">
         <v>10</v>
@@ -1575,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2">
         <v>9</v>
@@ -1595,7 +1595,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2">
         <v>8</v>
@@ -1615,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2">
         <v>7</v>
@@ -1635,7 +1635,7 @@
         <v>33</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2">
         <v>6</v>
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -1675,7 +1675,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2">
         <v>4</v>
@@ -1695,7 +1695,7 @@
         <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -1735,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
